--- a/Resources/DataKelas7.xlsx
+++ b/Resources/DataKelas7.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tubes msbd\tubes_group_7_msbd\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20616" yWindow="-120" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL DEAL" sheetId="7" r:id="rId1"/>
@@ -13,9 +18,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FINAL DEAL'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'FINAL DEAL'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4131,12 +4136,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4581,39 +4586,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M357"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B128" zoomScale="110" zoomScaleNormal="150" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A350" zoomScale="110" zoomScaleNormal="150" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="57.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="57.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.05" customHeight="1">
+    <row r="1" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>1363</v>
       </c>
@@ -4630,7 +4635,7 @@
       <c r="L1" s="33"/>
       <c r="M1" s="33"/>
     </row>
-    <row r="2" spans="1:13" ht="19.05" customHeight="1">
+    <row r="2" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>1364</v>
       </c>
@@ -4647,8 +4652,8 @@
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="1:13" ht="19.05" customHeight="1"/>
-    <row r="4" spans="1:13" ht="19.05" customHeight="1">
+    <row r="3" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>357</v>
       </c>
@@ -4687,7 +4692,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="19.05" customHeight="1">
+    <row r="5" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="35"/>
       <c r="C5" s="4"/>
@@ -4702,7 +4707,7 @@
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="1:13" ht="19.05" customHeight="1">
+    <row r="6" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -4744,7 +4749,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19.05" customHeight="1">
+    <row r="7" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -4786,7 +4791,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19.05" customHeight="1">
+    <row r="8" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -4828,7 +4833,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19.05" customHeight="1">
+    <row r="9" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -4870,7 +4875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19.05" customHeight="1">
+    <row r="10" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -4912,7 +4917,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19.05" customHeight="1">
+    <row r="11" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -4954,7 +4959,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19.05" customHeight="1">
+    <row r="12" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -4996,7 +5001,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19.05" customHeight="1">
+    <row r="13" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -5038,7 +5043,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19.05" customHeight="1">
+    <row r="14" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -5080,7 +5085,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19.05" customHeight="1">
+    <row r="15" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -5122,7 +5127,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.05" customHeight="1">
+    <row r="16" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -5164,7 +5169,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.05" customHeight="1">
+    <row r="17" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -5206,7 +5211,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.05" customHeight="1">
+    <row r="18" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -5248,7 +5253,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.05" customHeight="1">
+    <row r="19" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -5290,7 +5295,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.05" customHeight="1">
+    <row r="20" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -5332,7 +5337,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.05" customHeight="1">
+    <row r="21" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -5374,7 +5379,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="19.05" customHeight="1">
+    <row r="22" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -5416,7 +5421,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19.05" customHeight="1">
+    <row r="23" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -5458,7 +5463,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19.05" customHeight="1">
+    <row r="24" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -5500,7 +5505,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19.05" customHeight="1">
+    <row r="25" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -5542,7 +5547,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19.05" customHeight="1">
+    <row r="26" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -5584,7 +5589,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19.05" customHeight="1">
+    <row r="27" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -5626,7 +5631,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="19.05" customHeight="1">
+    <row r="28" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -5668,7 +5673,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="19.05" customHeight="1">
+    <row r="29" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -5710,7 +5715,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19.05" customHeight="1">
+    <row r="30" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -5752,7 +5757,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="19.05" customHeight="1">
+    <row r="31" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="19.05" customHeight="1">
+    <row r="32" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -5836,7 +5841,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="19.05" customHeight="1">
+    <row r="33" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -5878,7 +5883,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="19.05" customHeight="1">
+    <row r="34" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -5920,7 +5925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="19.05" customHeight="1">
+    <row r="35" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -5962,7 +5967,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="19.05" customHeight="1">
+    <row r="36" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -6004,7 +6009,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="19.05" customHeight="1">
+    <row r="37" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>32</v>
       </c>
@@ -6046,7 +6051,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="19.05" customHeight="1">
+    <row r="38" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -6088,7 +6093,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="19.05" customHeight="1">
+    <row r="39" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>2</v>
       </c>
@@ -6130,7 +6135,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="19.05" customHeight="1">
+    <row r="40" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>3</v>
       </c>
@@ -6172,7 +6177,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="19.05" customHeight="1">
+    <row r="41" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>4</v>
       </c>
@@ -6214,7 +6219,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="19.05" customHeight="1">
+    <row r="42" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>5</v>
       </c>
@@ -6256,7 +6261,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="19.05" customHeight="1">
+    <row r="43" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>6</v>
       </c>
@@ -6298,7 +6303,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="19.05" customHeight="1">
+    <row r="44" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>7</v>
       </c>
@@ -6340,7 +6345,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="19.05" customHeight="1">
+    <row r="45" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>8</v>
       </c>
@@ -6382,7 +6387,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="19.05" customHeight="1">
+    <row r="46" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>9</v>
       </c>
@@ -6424,7 +6429,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="19.05" customHeight="1">
+    <row r="47" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>10</v>
       </c>
@@ -6466,7 +6471,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="19.05" customHeight="1">
+    <row r="48" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>11</v>
       </c>
@@ -6508,7 +6513,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="19.05" customHeight="1">
+    <row r="49" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>12</v>
       </c>
@@ -6550,7 +6555,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="19.05" customHeight="1">
+    <row r="50" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>13</v>
       </c>
@@ -6592,7 +6597,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="19.05" customHeight="1">
+    <row r="51" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>14</v>
       </c>
@@ -6634,7 +6639,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="19.05" customHeight="1">
+    <row r="52" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>15</v>
       </c>
@@ -6676,7 +6681,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="19.05" customHeight="1">
+    <row r="53" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>16</v>
       </c>
@@ -6718,7 +6723,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="19.05" customHeight="1">
+    <row r="54" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>17</v>
       </c>
@@ -6760,7 +6765,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="19.05" customHeight="1">
+    <row r="55" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>18</v>
       </c>
@@ -6802,7 +6807,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="19.05" customHeight="1">
+    <row r="56" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>19</v>
       </c>
@@ -6844,7 +6849,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="19.05" customHeight="1">
+    <row r="57" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>20</v>
       </c>
@@ -6886,7 +6891,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="19.05" customHeight="1">
+    <row r="58" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>21</v>
       </c>
@@ -6928,7 +6933,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="19.05" customHeight="1">
+    <row r="59" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>22</v>
       </c>
@@ -6970,7 +6975,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="19.05" customHeight="1">
+    <row r="60" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>23</v>
       </c>
@@ -7012,7 +7017,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="19.05" customHeight="1">
+    <row r="61" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>24</v>
       </c>
@@ -7054,7 +7059,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="19.05" customHeight="1">
+    <row r="62" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>25</v>
       </c>
@@ -7096,7 +7101,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="19.05" customHeight="1">
+    <row r="63" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>26</v>
       </c>
@@ -7138,7 +7143,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="19.05" customHeight="1">
+    <row r="64" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>27</v>
       </c>
@@ -7180,7 +7185,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="19.05" customHeight="1">
+    <row r="65" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>28</v>
       </c>
@@ -7222,7 +7227,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="19.05" customHeight="1">
+    <row r="66" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>29</v>
       </c>
@@ -7264,7 +7269,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="19.05" customHeight="1">
+    <row r="67" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>30</v>
       </c>
@@ -7306,7 +7311,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="19.05" customHeight="1">
+    <row r="68" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>31</v>
       </c>
@@ -7348,7 +7353,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="19.05" customHeight="1">
+    <row r="69" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>32</v>
       </c>
@@ -7390,7 +7395,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="19.05" customHeight="1">
+    <row r="70" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>1</v>
       </c>
@@ -7432,7 +7437,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="19.05" customHeight="1">
+    <row r="71" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>2</v>
       </c>
@@ -7474,7 +7479,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="19.05" customHeight="1">
+    <row r="72" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>3</v>
       </c>
@@ -7516,7 +7521,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="19.05" customHeight="1">
+    <row r="73" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>4</v>
       </c>
@@ -7558,7 +7563,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="19.05" customHeight="1">
+    <row r="74" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>5</v>
       </c>
@@ -7600,7 +7605,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="19.05" customHeight="1">
+    <row r="75" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>6</v>
       </c>
@@ -7642,7 +7647,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="19.05" customHeight="1">
+    <row r="76" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>7</v>
       </c>
@@ -7684,7 +7689,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="19.05" customHeight="1">
+    <row r="77" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>8</v>
       </c>
@@ -7726,7 +7731,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="19.05" customHeight="1">
+    <row r="78" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>9</v>
       </c>
@@ -7768,7 +7773,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="19.05" customHeight="1">
+    <row r="79" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>10</v>
       </c>
@@ -7810,7 +7815,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="19.05" customHeight="1">
+    <row r="80" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>11</v>
       </c>
@@ -7852,7 +7857,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="29" customFormat="1" ht="19.05" customHeight="1">
+    <row r="81" spans="1:13" s="29" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22">
         <v>12</v>
       </c>
@@ -7894,7 +7899,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="19.05" customHeight="1">
+    <row r="82" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>13</v>
       </c>
@@ -7936,7 +7941,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="19.05" customHeight="1">
+    <row r="83" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>14</v>
       </c>
@@ -7978,7 +7983,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="19.05" customHeight="1">
+    <row r="84" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>15</v>
       </c>
@@ -8020,7 +8025,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="19.05" customHeight="1">
+    <row r="85" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>16</v>
       </c>
@@ -8062,7 +8067,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="19.05" customHeight="1">
+    <row r="86" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>17</v>
       </c>
@@ -8104,7 +8109,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="19.05" customHeight="1">
+    <row r="87" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>18</v>
       </c>
@@ -8146,7 +8151,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="19.05" customHeight="1">
+    <row r="88" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>19</v>
       </c>
@@ -8188,7 +8193,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="19.05" customHeight="1">
+    <row r="89" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>20</v>
       </c>
@@ -8230,7 +8235,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="19.05" customHeight="1">
+    <row r="90" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>21</v>
       </c>
@@ -8272,7 +8277,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="19.05" customHeight="1">
+    <row r="91" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>22</v>
       </c>
@@ -8314,7 +8319,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="19.05" customHeight="1">
+    <row r="92" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>23</v>
       </c>
@@ -8356,7 +8361,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="19.05" customHeight="1">
+    <row r="93" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>24</v>
       </c>
@@ -8398,7 +8403,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="19.05" customHeight="1">
+    <row r="94" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>25</v>
       </c>
@@ -8440,7 +8445,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="19.05" customHeight="1">
+    <row r="95" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>26</v>
       </c>
@@ -8482,7 +8487,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="19.05" customHeight="1">
+    <row r="96" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>27</v>
       </c>
@@ -8524,7 +8529,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="19.05" customHeight="1">
+    <row r="97" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>28</v>
       </c>
@@ -8566,7 +8571,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="19.05" customHeight="1">
+    <row r="98" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>29</v>
       </c>
@@ -8608,7 +8613,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="19.05" customHeight="1">
+    <row r="99" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>30</v>
       </c>
@@ -8650,7 +8655,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="19.05" customHeight="1">
+    <row r="100" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>31</v>
       </c>
@@ -8692,7 +8697,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="19.05" customHeight="1">
+    <row r="101" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>32</v>
       </c>
@@ -8734,7 +8739,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="19.05" customHeight="1">
+    <row r="102" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -8776,7 +8781,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="19.05" customHeight="1">
+    <row r="103" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>2</v>
       </c>
@@ -8818,7 +8823,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="19.05" customHeight="1">
+    <row r="104" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>3</v>
       </c>
@@ -8860,7 +8865,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="19.05" customHeight="1">
+    <row r="105" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>4</v>
       </c>
@@ -8902,7 +8907,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="19.05" customHeight="1">
+    <row r="106" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>5</v>
       </c>
@@ -8944,7 +8949,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="19.05" customHeight="1">
+    <row r="107" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>6</v>
       </c>
@@ -8986,7 +8991,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="19.05" customHeight="1">
+    <row r="108" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>7</v>
       </c>
@@ -9028,7 +9033,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="19.05" customHeight="1">
+    <row r="109" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>8</v>
       </c>
@@ -9070,7 +9075,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="19.05" customHeight="1">
+    <row r="110" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>9</v>
       </c>
@@ -9112,7 +9117,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="19.05" customHeight="1">
+    <row r="111" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>10</v>
       </c>
@@ -9154,7 +9159,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="19.05" customHeight="1">
+    <row r="112" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>11</v>
       </c>
@@ -9196,7 +9201,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="19.05" customHeight="1">
+    <row r="113" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>12</v>
       </c>
@@ -9238,7 +9243,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="19.05" customHeight="1">
+    <row r="114" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>13</v>
       </c>
@@ -9280,7 +9285,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="19.05" customHeight="1">
+    <row r="115" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>14</v>
       </c>
@@ -9322,7 +9327,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="19.05" customHeight="1">
+    <row r="116" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>15</v>
       </c>
@@ -9364,7 +9369,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="19.05" customHeight="1">
+    <row r="117" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>16</v>
       </c>
@@ -9406,7 +9411,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="19.05" customHeight="1">
+    <row r="118" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>17</v>
       </c>
@@ -9448,7 +9453,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="19.05" customHeight="1">
+    <row r="119" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>18</v>
       </c>
@@ -9490,7 +9495,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="19.05" customHeight="1">
+    <row r="120" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>19</v>
       </c>
@@ -9532,7 +9537,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="19.05" customHeight="1">
+    <row r="121" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>20</v>
       </c>
@@ -9574,7 +9579,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="19.05" customHeight="1">
+    <row r="122" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>21</v>
       </c>
@@ -9616,7 +9621,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="19.05" customHeight="1">
+    <row r="123" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>22</v>
       </c>
@@ -9658,7 +9663,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="19.05" customHeight="1">
+    <row r="124" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>23</v>
       </c>
@@ -9700,7 +9705,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="19.05" customHeight="1">
+    <row r="125" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>24</v>
       </c>
@@ -9742,7 +9747,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="19.05" customHeight="1">
+    <row r="126" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>25</v>
       </c>
@@ -9784,7 +9789,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="19.05" customHeight="1">
+    <row r="127" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>26</v>
       </c>
@@ -9826,7 +9831,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="19.05" customHeight="1">
+    <row r="128" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>27</v>
       </c>
@@ -9868,7 +9873,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="19.05" customHeight="1">
+    <row r="129" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>28</v>
       </c>
@@ -9910,7 +9915,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="19.05" customHeight="1">
+    <row r="130" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>29</v>
       </c>
@@ -9952,7 +9957,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="19.05" customHeight="1">
+    <row r="131" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>30</v>
       </c>
@@ -9994,7 +9999,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="19.05" customHeight="1">
+    <row r="132" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>31</v>
       </c>
@@ -10036,7 +10041,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="19.05" customHeight="1">
+    <row r="133" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>32</v>
       </c>
@@ -10078,7 +10083,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="19.05" customHeight="1">
+    <row r="134" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>1</v>
       </c>
@@ -10120,7 +10125,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="19.05" customHeight="1">
+    <row r="135" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>2</v>
       </c>
@@ -10162,7 +10167,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="19.05" customHeight="1">
+    <row r="136" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>3</v>
       </c>
@@ -10204,7 +10209,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="19.05" customHeight="1">
+    <row r="137" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>4</v>
       </c>
@@ -10246,7 +10251,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="19.05" customHeight="1">
+    <row r="138" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>5</v>
       </c>
@@ -10288,7 +10293,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="19.05" customHeight="1">
+    <row r="139" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>6</v>
       </c>
@@ -10330,7 +10335,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="19.05" customHeight="1">
+    <row r="140" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>7</v>
       </c>
@@ -10372,7 +10377,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="19.05" customHeight="1">
+    <row r="141" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>8</v>
       </c>
@@ -10414,7 +10419,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="19.05" customHeight="1">
+    <row r="142" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>9</v>
       </c>
@@ -10456,7 +10461,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="19.05" customHeight="1">
+    <row r="143" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>10</v>
       </c>
@@ -10498,7 +10503,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="19.05" customHeight="1">
+    <row r="144" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>11</v>
       </c>
@@ -10540,7 +10545,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="19.05" customHeight="1">
+    <row r="145" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>12</v>
       </c>
@@ -10582,7 +10587,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="19.05" customHeight="1">
+    <row r="146" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>13</v>
       </c>
@@ -10624,7 +10629,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="19.05" customHeight="1">
+    <row r="147" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>14</v>
       </c>
@@ -10666,7 +10671,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="19.05" customHeight="1">
+    <row r="148" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>15</v>
       </c>
@@ -10708,7 +10713,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="19.05" customHeight="1">
+    <row r="149" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>16</v>
       </c>
@@ -10750,7 +10755,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.05" customHeight="1">
+    <row r="150" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>17</v>
       </c>
@@ -10792,7 +10797,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.05" customHeight="1">
+    <row r="151" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>18</v>
       </c>
@@ -10834,7 +10839,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="19.05" customHeight="1">
+    <row r="152" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>19</v>
       </c>
@@ -10876,7 +10881,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="19.05" customHeight="1">
+    <row r="153" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>20</v>
       </c>
@@ -10918,7 +10923,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.05" customHeight="1">
+    <row r="154" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>21</v>
       </c>
@@ -10960,7 +10965,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.05" customHeight="1">
+    <row r="155" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>22</v>
       </c>
@@ -11002,7 +11007,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.05" customHeight="1">
+    <row r="156" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>23</v>
       </c>
@@ -11044,7 +11049,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.05" customHeight="1">
+    <row r="157" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>24</v>
       </c>
@@ -11086,7 +11091,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.05" customHeight="1">
+    <row r="158" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>25</v>
       </c>
@@ -11128,7 +11133,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.05" customHeight="1">
+    <row r="159" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>26</v>
       </c>
@@ -11170,7 +11175,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.05" customHeight="1">
+    <row r="160" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>27</v>
       </c>
@@ -11212,7 +11217,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.05" customHeight="1">
+    <row r="161" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>28</v>
       </c>
@@ -11254,7 +11259,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.05" customHeight="1">
+    <row r="162" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>29</v>
       </c>
@@ -11296,7 +11301,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.05" customHeight="1">
+    <row r="163" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>30</v>
       </c>
@@ -11338,7 +11343,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.05" customHeight="1">
+    <row r="164" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>31</v>
       </c>
@@ -11380,7 +11385,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.05" customHeight="1">
+    <row r="165" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>32</v>
       </c>
@@ -11422,7 +11427,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.05" customHeight="1">
+    <row r="166" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>1</v>
       </c>
@@ -11464,7 +11469,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.05" customHeight="1">
+    <row r="167" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>2</v>
       </c>
@@ -11506,7 +11511,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.05" customHeight="1">
+    <row r="168" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>3</v>
       </c>
@@ -11548,7 +11553,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.05" customHeight="1">
+    <row r="169" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>4</v>
       </c>
@@ -11590,7 +11595,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="19.05" customHeight="1">
+    <row r="170" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>5</v>
       </c>
@@ -11632,7 +11637,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="19.05" customHeight="1">
+    <row r="171" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
         <v>6</v>
       </c>
@@ -11674,7 +11679,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="19.05" customHeight="1">
+    <row r="172" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>7</v>
       </c>
@@ -11716,7 +11721,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="29" customFormat="1" ht="19.05" customHeight="1">
+    <row r="173" spans="1:13" s="29" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="22">
         <v>8</v>
       </c>
@@ -11758,7 +11763,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="19.05" customHeight="1">
+    <row r="174" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
         <v>9</v>
       </c>
@@ -11800,7 +11805,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="19.05" customHeight="1">
+    <row r="175" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>10</v>
       </c>
@@ -11842,7 +11847,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="19.05" customHeight="1">
+    <row r="176" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
         <v>11</v>
       </c>
@@ -11884,7 +11889,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="19.05" customHeight="1">
+    <row r="177" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>12</v>
       </c>
@@ -11926,7 +11931,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="19.05" customHeight="1">
+    <row r="178" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
         <v>13</v>
       </c>
@@ -11968,7 +11973,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="19.05" customHeight="1">
+    <row r="179" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
         <v>14</v>
       </c>
@@ -12010,7 +12015,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="19.05" customHeight="1">
+    <row r="180" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
         <v>15</v>
       </c>
@@ -12052,7 +12057,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="19.05" customHeight="1">
+    <row r="181" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
         <v>16</v>
       </c>
@@ -12094,7 +12099,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="19.05" customHeight="1">
+    <row r="182" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
         <v>17</v>
       </c>
@@ -12136,7 +12141,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="19.05" customHeight="1">
+    <row r="183" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
         <v>18</v>
       </c>
@@ -12178,7 +12183,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="19.05" customHeight="1">
+    <row r="184" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
         <v>19</v>
       </c>
@@ -12220,7 +12225,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="19.05" customHeight="1">
+    <row r="185" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
         <v>20</v>
       </c>
@@ -12262,7 +12267,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="19.05" customHeight="1">
+    <row r="186" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
         <v>21</v>
       </c>
@@ -12304,7 +12309,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="19.05" customHeight="1">
+    <row r="187" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>22</v>
       </c>
@@ -12346,7 +12351,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="19.05" customHeight="1">
+    <row r="188" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
         <v>23</v>
       </c>
@@ -12388,7 +12393,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="19.05" customHeight="1">
+    <row r="189" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
         <v>24</v>
       </c>
@@ -12430,7 +12435,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="19.05" customHeight="1">
+    <row r="190" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
         <v>25</v>
       </c>
@@ -12472,7 +12477,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="19.05" customHeight="1">
+    <row r="191" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
         <v>26</v>
       </c>
@@ -12514,7 +12519,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="19.05" customHeight="1">
+    <row r="192" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
         <v>27</v>
       </c>
@@ -12556,7 +12561,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="19.05" customHeight="1">
+    <row r="193" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
         <v>28</v>
       </c>
@@ -12598,7 +12603,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="19.05" customHeight="1">
+    <row r="194" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
         <v>29</v>
       </c>
@@ -12640,7 +12645,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="19.05" customHeight="1">
+    <row r="195" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
         <v>30</v>
       </c>
@@ -12682,7 +12687,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="19.05" customHeight="1">
+    <row r="196" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
         <v>31</v>
       </c>
@@ -12724,7 +12729,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="19.05" customHeight="1">
+    <row r="197" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
         <v>32</v>
       </c>
@@ -12766,7 +12771,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="19.05" customHeight="1">
+    <row r="198" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
         <v>1</v>
       </c>
@@ -12808,7 +12813,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="19.05" customHeight="1">
+    <row r="199" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
         <v>2</v>
       </c>
@@ -12850,7 +12855,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="19.05" customHeight="1">
+    <row r="200" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
         <v>3</v>
       </c>
@@ -12892,7 +12897,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="19.05" customHeight="1">
+    <row r="201" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
         <v>4</v>
       </c>
@@ -12934,7 +12939,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="19.05" customHeight="1">
+    <row r="202" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
         <v>5</v>
       </c>
@@ -12976,7 +12981,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="19.05" customHeight="1">
+    <row r="203" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
         <v>6</v>
       </c>
@@ -13018,7 +13023,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="19.05" customHeight="1">
+    <row r="204" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
         <v>7</v>
       </c>
@@ -13060,7 +13065,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="19.05" customHeight="1">
+    <row r="205" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
         <v>8</v>
       </c>
@@ -13102,7 +13107,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="19.05" customHeight="1">
+    <row r="206" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
         <v>9</v>
       </c>
@@ -13144,7 +13149,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="19.05" customHeight="1">
+    <row r="207" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
         <v>10</v>
       </c>
@@ -13186,7 +13191,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="19.05" customHeight="1">
+    <row r="208" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
         <v>11</v>
       </c>
@@ -13228,7 +13233,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="19.05" customHeight="1">
+    <row r="209" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
         <v>12</v>
       </c>
@@ -13270,7 +13275,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="19.05" customHeight="1">
+    <row r="210" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5">
         <v>13</v>
       </c>
@@ -13312,7 +13317,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="19.05" customHeight="1">
+    <row r="211" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
         <v>14</v>
       </c>
@@ -13354,7 +13359,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="19.05" customHeight="1">
+    <row r="212" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5">
         <v>15</v>
       </c>
@@ -13396,7 +13401,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="19.05" customHeight="1">
+    <row r="213" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
         <v>16</v>
       </c>
@@ -13438,7 +13443,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="19.05" customHeight="1">
+    <row r="214" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
         <v>17</v>
       </c>
@@ -13480,7 +13485,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="19.05" customHeight="1">
+    <row r="215" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5">
         <v>18</v>
       </c>
@@ -13522,7 +13527,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="19.05" customHeight="1">
+    <row r="216" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5">
         <v>19</v>
       </c>
@@ -13564,7 +13569,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="19.05" customHeight="1">
+    <row r="217" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
         <v>20</v>
       </c>
@@ -13606,7 +13611,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="19.05" customHeight="1">
+    <row r="218" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
         <v>21</v>
       </c>
@@ -13648,7 +13653,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="19.05" customHeight="1">
+    <row r="219" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
         <v>22</v>
       </c>
@@ -13690,7 +13695,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="19.05" customHeight="1">
+    <row r="220" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
         <v>23</v>
       </c>
@@ -13732,7 +13737,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="19.05" customHeight="1">
+    <row r="221" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
         <v>24</v>
       </c>
@@ -13774,7 +13779,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="19.05" customHeight="1">
+    <row r="222" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
         <v>25</v>
       </c>
@@ -13816,7 +13821,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="19.05" customHeight="1">
+    <row r="223" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
         <v>26</v>
       </c>
@@ -13858,7 +13863,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="19.05" customHeight="1">
+    <row r="224" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5">
         <v>27</v>
       </c>
@@ -13900,7 +13905,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="19.05" customHeight="1">
+    <row r="225" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
         <v>28</v>
       </c>
@@ -13942,7 +13947,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="19.05" customHeight="1">
+    <row r="226" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5">
         <v>29</v>
       </c>
@@ -13984,7 +13989,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="19.05" customHeight="1">
+    <row r="227" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
         <v>30</v>
       </c>
@@ -14026,7 +14031,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="19.05" customHeight="1">
+    <row r="228" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
         <v>31</v>
       </c>
@@ -14068,7 +14073,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="19.05" customHeight="1">
+    <row r="229" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
         <v>32</v>
       </c>
@@ -14110,7 +14115,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="19.05" customHeight="1">
+    <row r="230" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5">
         <v>1</v>
       </c>
@@ -14152,7 +14157,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="19.05" customHeight="1">
+    <row r="231" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
         <v>2</v>
       </c>
@@ -14194,7 +14199,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="19.05" customHeight="1">
+    <row r="232" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
         <v>3</v>
       </c>
@@ -14236,7 +14241,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="19.05" customHeight="1">
+    <row r="233" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
         <v>4</v>
       </c>
@@ -14278,7 +14283,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="19.05" customHeight="1">
+    <row r="234" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
         <v>5</v>
       </c>
@@ -14320,7 +14325,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="19.05" customHeight="1">
+    <row r="235" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
         <v>6</v>
       </c>
@@ -14362,7 +14367,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="19.05" customHeight="1">
+    <row r="236" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5">
         <v>7</v>
       </c>
@@ -14404,7 +14409,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="19.05" customHeight="1">
+    <row r="237" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5">
         <v>8</v>
       </c>
@@ -14446,7 +14451,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="19.05" customHeight="1">
+    <row r="238" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
         <v>9</v>
       </c>
@@ -14488,7 +14493,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="19.05" customHeight="1">
+    <row r="239" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
         <v>10</v>
       </c>
@@ -14530,7 +14535,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="19.05" customHeight="1">
+    <row r="240" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5">
         <v>11</v>
       </c>
@@ -14572,7 +14577,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="19.05" customHeight="1">
+    <row r="241" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
         <v>12</v>
       </c>
@@ -14614,7 +14619,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="19.05" customHeight="1">
+    <row r="242" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5">
         <v>13</v>
       </c>
@@ -14656,7 +14661,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="19.05" customHeight="1">
+    <row r="243" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5">
         <v>14</v>
       </c>
@@ -14698,7 +14703,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="19.05" customHeight="1">
+    <row r="244" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5">
         <v>15</v>
       </c>
@@ -14740,7 +14745,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="19.05" customHeight="1">
+    <row r="245" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5">
         <v>16</v>
       </c>
@@ -14782,7 +14787,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="19.05" customHeight="1">
+    <row r="246" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5">
         <v>17</v>
       </c>
@@ -14824,7 +14829,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="19.05" customHeight="1">
+    <row r="247" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5">
         <v>18</v>
       </c>
@@ -14866,7 +14871,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="19.05" customHeight="1">
+    <row r="248" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
         <v>19</v>
       </c>
@@ -14908,7 +14913,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="19.05" customHeight="1">
+    <row r="249" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5">
         <v>20</v>
       </c>
@@ -14950,7 +14955,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="19.05" customHeight="1">
+    <row r="250" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5">
         <v>21</v>
       </c>
@@ -14992,7 +14997,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="19.05" customHeight="1">
+    <row r="251" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5">
         <v>22</v>
       </c>
@@ -15034,7 +15039,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="19.05" customHeight="1">
+    <row r="252" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5">
         <v>23</v>
       </c>
@@ -15076,7 +15081,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="19.05" customHeight="1">
+    <row r="253" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
         <v>24</v>
       </c>
@@ -15118,7 +15123,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="19.05" customHeight="1">
+    <row r="254" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
         <v>25</v>
       </c>
@@ -15160,7 +15165,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="19.05" customHeight="1">
+    <row r="255" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5">
         <v>26</v>
       </c>
@@ -15202,7 +15207,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="19.05" customHeight="1">
+    <row r="256" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5">
         <v>27</v>
       </c>
@@ -15244,7 +15249,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="19.05" customHeight="1">
+    <row r="257" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5">
         <v>28</v>
       </c>
@@ -15286,7 +15291,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="19.05" customHeight="1">
+    <row r="258" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5">
         <v>29</v>
       </c>
@@ -15328,7 +15333,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="19.05" customHeight="1">
+    <row r="259" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5">
         <v>30</v>
       </c>
@@ -15370,7 +15375,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="19.05" customHeight="1">
+    <row r="260" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5">
         <v>31</v>
       </c>
@@ -15412,7 +15417,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="19.05" customHeight="1">
+    <row r="261" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5">
         <v>32</v>
       </c>
@@ -15454,7 +15459,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="19.05" customHeight="1">
+    <row r="262" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5">
         <v>1</v>
       </c>
@@ -15496,7 +15501,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="19.05" customHeight="1">
+    <row r="263" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5">
         <v>2</v>
       </c>
@@ -15538,7 +15543,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="19.05" customHeight="1">
+    <row r="264" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5">
         <v>3</v>
       </c>
@@ -15580,7 +15585,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="19.05" customHeight="1">
+    <row r="265" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
         <v>4</v>
       </c>
@@ -15622,7 +15627,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="19.05" customHeight="1">
+    <row r="266" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5">
         <v>5</v>
       </c>
@@ -15664,7 +15669,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="19.05" customHeight="1">
+    <row r="267" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5">
         <v>6</v>
       </c>
@@ -15706,7 +15711,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="19.05" customHeight="1">
+    <row r="268" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5">
         <v>7</v>
       </c>
@@ -15748,7 +15753,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="19.05" customHeight="1">
+    <row r="269" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
         <v>8</v>
       </c>
@@ -15790,7 +15795,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="19.05" customHeight="1">
+    <row r="270" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5">
         <v>9</v>
       </c>
@@ -15832,7 +15837,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="19.05" customHeight="1">
+    <row r="271" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
         <v>10</v>
       </c>
@@ -15874,7 +15879,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="19.05" customHeight="1">
+    <row r="272" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5">
         <v>11</v>
       </c>
@@ -15916,7 +15921,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="19.05" customHeight="1">
+    <row r="273" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5">
         <v>12</v>
       </c>
@@ -15958,7 +15963,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="19.05" customHeight="1">
+    <row r="274" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5">
         <v>13</v>
       </c>
@@ -16000,7 +16005,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="19.05" customHeight="1">
+    <row r="275" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5">
         <v>14</v>
       </c>
@@ -16042,7 +16047,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="19.05" customHeight="1">
+    <row r="276" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5">
         <v>15</v>
       </c>
@@ -16084,7 +16089,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="19.05" customHeight="1">
+    <row r="277" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5">
         <v>16</v>
       </c>
@@ -16126,7 +16131,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="19.05" customHeight="1">
+    <row r="278" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5">
         <v>17</v>
       </c>
@@ -16168,7 +16173,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="19.05" customHeight="1">
+    <row r="279" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5">
         <v>18</v>
       </c>
@@ -16210,7 +16215,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="19.05" customHeight="1">
+    <row r="280" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5">
         <v>19</v>
       </c>
@@ -16252,7 +16257,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="19.05" customHeight="1">
+    <row r="281" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5">
         <v>20</v>
       </c>
@@ -16294,7 +16299,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="19.05" customHeight="1">
+    <row r="282" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5">
         <v>21</v>
       </c>
@@ -16336,7 +16341,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="19.05" customHeight="1">
+    <row r="283" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5">
         <v>22</v>
       </c>
@@ -16378,7 +16383,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="19.05" customHeight="1">
+    <row r="284" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5">
         <v>23</v>
       </c>
@@ -16420,7 +16425,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="19.05" customHeight="1">
+    <row r="285" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5">
         <v>24</v>
       </c>
@@ -16462,7 +16467,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="19.05" customHeight="1">
+    <row r="286" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5">
         <v>25</v>
       </c>
@@ -16504,7 +16509,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="19.05" customHeight="1">
+    <row r="287" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
         <v>26</v>
       </c>
@@ -16546,7 +16551,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="19.05" customHeight="1">
+    <row r="288" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5">
         <v>27</v>
       </c>
@@ -16588,7 +16593,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="19.05" customHeight="1">
+    <row r="289" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
         <v>28</v>
       </c>
@@ -16630,7 +16635,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="19.05" customHeight="1">
+    <row r="290" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5">
         <v>29</v>
       </c>
@@ -16672,7 +16677,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="19.05" customHeight="1">
+    <row r="291" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
         <v>30</v>
       </c>
@@ -16714,7 +16719,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="19.05" customHeight="1">
+    <row r="292" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
         <v>31</v>
       </c>
@@ -16756,7 +16761,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="19.05" customHeight="1">
+    <row r="293" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5">
         <v>32</v>
       </c>
@@ -16798,7 +16803,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="19.05" customHeight="1">
+    <row r="294" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5">
         <v>1</v>
       </c>
@@ -16840,7 +16845,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="19.05" customHeight="1">
+    <row r="295" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5">
         <v>2</v>
       </c>
@@ -16882,7 +16887,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="19.05" customHeight="1">
+    <row r="296" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5">
         <v>3</v>
       </c>
@@ -16924,7 +16929,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="19.05" customHeight="1">
+    <row r="297" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5">
         <v>4</v>
       </c>
@@ -16966,7 +16971,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="19.05" customHeight="1">
+    <row r="298" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5">
         <v>5</v>
       </c>
@@ -17008,7 +17013,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="19.05" customHeight="1">
+    <row r="299" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5">
         <v>6</v>
       </c>
@@ -17050,7 +17055,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="19.05" customHeight="1">
+    <row r="300" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5">
         <v>7</v>
       </c>
@@ -17092,7 +17097,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="19.05" customHeight="1">
+    <row r="301" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5">
         <v>8</v>
       </c>
@@ -17134,7 +17139,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="19.05" customHeight="1">
+    <row r="302" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5">
         <v>9</v>
       </c>
@@ -17176,7 +17181,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="19.05" customHeight="1">
+    <row r="303" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5">
         <v>10</v>
       </c>
@@ -17218,7 +17223,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="19.05" customHeight="1">
+    <row r="304" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5">
         <v>11</v>
       </c>
@@ -17260,7 +17265,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="19.05" customHeight="1">
+    <row r="305" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5">
         <v>12</v>
       </c>
@@ -17302,7 +17307,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="19.05" customHeight="1">
+    <row r="306" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="5">
         <v>13</v>
       </c>
@@ -17344,7 +17349,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="19.05" customHeight="1">
+    <row r="307" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5">
         <v>14</v>
       </c>
@@ -17386,7 +17391,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="19.05" customHeight="1">
+    <row r="308" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5">
         <v>15</v>
       </c>
@@ -17428,7 +17433,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="19.05" customHeight="1">
+    <row r="309" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5">
         <v>16</v>
       </c>
@@ -17470,7 +17475,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="19.05" customHeight="1">
+    <row r="310" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5">
         <v>17</v>
       </c>
@@ -17512,7 +17517,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="19.05" customHeight="1">
+    <row r="311" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5">
         <v>18</v>
       </c>
@@ -17554,7 +17559,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="19.05" customHeight="1">
+    <row r="312" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5">
         <v>19</v>
       </c>
@@ -17596,7 +17601,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="19.05" customHeight="1">
+    <row r="313" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5">
         <v>20</v>
       </c>
@@ -17638,7 +17643,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="19.05" customHeight="1">
+    <row r="314" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5">
         <v>21</v>
       </c>
@@ -17680,7 +17685,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="19.05" customHeight="1">
+    <row r="315" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5">
         <v>22</v>
       </c>
@@ -17722,7 +17727,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="19.05" customHeight="1">
+    <row r="316" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5">
         <v>23</v>
       </c>
@@ -17764,7 +17769,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="19.05" customHeight="1">
+    <row r="317" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5">
         <v>24</v>
       </c>
@@ -17806,7 +17811,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="19.05" customHeight="1">
+    <row r="318" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5">
         <v>25</v>
       </c>
@@ -17848,7 +17853,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="19.05" customHeight="1">
+    <row r="319" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5">
         <v>26</v>
       </c>
@@ -17890,7 +17895,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="19.05" customHeight="1">
+    <row r="320" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="5">
         <v>27</v>
       </c>
@@ -17932,7 +17937,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="19.05" customHeight="1">
+    <row r="321" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5">
         <v>28</v>
       </c>
@@ -17974,7 +17979,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="19.05" customHeight="1">
+    <row r="322" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5">
         <v>29</v>
       </c>
@@ -18016,7 +18021,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="19.05" customHeight="1">
+    <row r="323" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5">
         <v>30</v>
       </c>
@@ -18058,7 +18063,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="19.05" customHeight="1">
+    <row r="324" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="5">
         <v>31</v>
       </c>
@@ -18100,7 +18105,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="19.05" customHeight="1">
+    <row r="325" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5">
         <v>32</v>
       </c>
@@ -18142,7 +18147,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="19.05" customHeight="1">
+    <row r="326" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5">
         <v>1</v>
       </c>
@@ -18184,7 +18189,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="19.05" customHeight="1">
+    <row r="327" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5">
         <v>2</v>
       </c>
@@ -18226,7 +18231,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="19.05" customHeight="1">
+    <row r="328" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5">
         <v>3</v>
       </c>
@@ -18268,7 +18273,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="19.05" customHeight="1">
+    <row r="329" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5">
         <v>4</v>
       </c>
@@ -18310,7 +18315,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="19.05" customHeight="1">
+    <row r="330" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="5">
         <v>5</v>
       </c>
@@ -18352,7 +18357,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="19.05" customHeight="1">
+    <row r="331" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5">
         <v>6</v>
       </c>
@@ -18394,7 +18399,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="19.05" customHeight="1">
+    <row r="332" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="5">
         <v>7</v>
       </c>
@@ -18436,7 +18441,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="19.05" customHeight="1">
+    <row r="333" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5">
         <v>8</v>
       </c>
@@ -18478,7 +18483,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="19.05" customHeight="1">
+    <row r="334" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5">
         <v>9</v>
       </c>
@@ -18520,7 +18525,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="19.05" customHeight="1">
+    <row r="335" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5">
         <v>10</v>
       </c>
@@ -18562,7 +18567,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="19.05" customHeight="1">
+    <row r="336" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5">
         <v>11</v>
       </c>
@@ -18604,7 +18609,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="19.05" customHeight="1">
+    <row r="337" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5">
         <v>12</v>
       </c>
@@ -18646,7 +18651,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="19.05" customHeight="1">
+    <row r="338" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5">
         <v>13</v>
       </c>
@@ -18688,7 +18693,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="19.05" customHeight="1">
+    <row r="339" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5">
         <v>14</v>
       </c>
@@ -18730,7 +18735,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="19.05" customHeight="1">
+    <row r="340" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5">
         <v>15</v>
       </c>
@@ -18772,7 +18777,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="19.05" customHeight="1">
+    <row r="341" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5">
         <v>16</v>
       </c>
@@ -18814,7 +18819,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="19.05" customHeight="1">
+    <row r="342" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5">
         <v>17</v>
       </c>
@@ -18856,7 +18861,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="19.05" customHeight="1">
+    <row r="343" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5">
         <v>18</v>
       </c>
@@ -18898,7 +18903,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="19.05" customHeight="1">
+    <row r="344" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="5">
         <v>19</v>
       </c>
@@ -18940,7 +18945,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="19.05" customHeight="1">
+    <row r="345" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5">
         <v>20</v>
       </c>
@@ -18982,7 +18987,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="19.05" customHeight="1">
+    <row r="346" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="5">
         <v>21</v>
       </c>
@@ -19024,7 +19029,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="19.05" customHeight="1">
+    <row r="347" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="5">
         <v>22</v>
       </c>
@@ -19066,7 +19071,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="19.05" customHeight="1">
+    <row r="348" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="5">
         <v>23</v>
       </c>
@@ -19108,7 +19113,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="19.05" customHeight="1">
+    <row r="349" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5">
         <v>24</v>
       </c>
@@ -19150,7 +19155,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="19.05" customHeight="1">
+    <row r="350" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5">
         <v>25</v>
       </c>
@@ -19192,7 +19197,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="19.05" customHeight="1">
+    <row r="351" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5">
         <v>26</v>
       </c>
@@ -19234,7 +19239,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="19.05" customHeight="1">
+    <row r="352" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5">
         <v>27</v>
       </c>
@@ -19276,7 +19281,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="19.05" customHeight="1">
+    <row r="353" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5">
         <v>28</v>
       </c>
@@ -19318,7 +19323,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="19.05" customHeight="1">
+    <row r="354" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5">
         <v>29</v>
       </c>
@@ -19360,7 +19365,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="19.05" customHeight="1">
+    <row r="355" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5">
         <v>30</v>
       </c>
@@ -19402,7 +19407,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="19.05" customHeight="1">
+    <row r="356" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="5">
         <v>31</v>
       </c>
@@ -19444,7 +19449,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="19.05" customHeight="1">
+    <row r="357" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5">
         <v>32</v>
       </c>
@@ -19508,6 +19513,6 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="256" scale="80" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="256" scale="80" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>